--- a/Team-Data/2011-12/4-24-2011-12.xlsx
+++ b/Team-Data/2011-12/4-24-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H2" t="n">
         <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L2" t="n">
         <v>7.4</v>
@@ -696,28 +763,28 @@
         <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O2" t="n">
         <v>15.7</v>
       </c>
       <c r="P2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T2" t="n">
         <v>41.2</v>
       </c>
       <c r="U2" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V2" t="n">
         <v>13.9</v>
@@ -738,13 +805,13 @@
         <v>19.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC2" t="n">
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -771,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -780,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -813,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.585</v>
+        <v>0.578</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,40 +933,40 @@
         <v>35.5</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
         <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R3" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T3" t="n">
         <v>38.7</v>
       </c>
       <c r="U3" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V3" t="n">
         <v>14.8</v>
@@ -914,19 +981,19 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA3" t="n">
         <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
@@ -938,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -959,31 +1026,31 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
         <v>7</v>
@@ -992,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1538,7 +1605,7 @@
         <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
         <v>6</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1702,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
         <v>14</v>
@@ -1720,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -2030,13 +2097,13 @@
         <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2048,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2069,7 +2136,7 @@
         <v>27</v>
       </c>
       <c r="AU9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J10" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O10" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P10" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R10" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T10" t="n">
         <v>39.2</v>
       </c>
       <c r="U10" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
         <v>13.8</v>
@@ -2194,25 +2261,25 @@
         <v>16.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -2221,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2245,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
         <v>28</v>
@@ -2254,7 +2321,7 @@
         <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW10" t="n">
         <v>11</v>
@@ -2263,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -2388,10 +2455,10 @@
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
@@ -2409,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>10</v>
@@ -2442,19 +2509,19 @@
         <v>17</v>
       </c>
       <c r="AX11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
         <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
@@ -2612,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
@@ -2636,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.615</v>
+        <v>0.625</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2689,7 +2756,7 @@
         <v>81.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
         <v>7.7</v>
@@ -2698,7 +2765,7 @@
         <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O13" t="n">
         <v>15.9</v>
@@ -2713,13 +2780,13 @@
         <v>12.2</v>
       </c>
       <c r="S13" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T13" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
         <v>13.3</v>
@@ -2734,31 +2801,31 @@
         <v>4.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
         <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2782,7 +2849,7 @@
         <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2791,10 +2858,10 @@
         <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
@@ -2806,7 +2873,7 @@
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -2949,10 +3016,10 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
         <v>19</v>
@@ -2964,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -3116,19 +3183,19 @@
         <v>7</v>
       </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3176,10 +3243,10 @@
         <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -3214,61 +3281,61 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="n">
         <v>46</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.708</v>
+        <v>0.719</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J16" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L16" t="n">
         <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N16" t="n">
         <v>0.362</v>
       </c>
       <c r="O16" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P16" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
         <v>31.3</v>
       </c>
       <c r="T16" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U16" t="n">
         <v>20.1</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
         <v>8.9</v>
@@ -3277,40 +3344,40 @@
         <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z16" t="n">
         <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>3</v>
@@ -3325,28 +3392,28 @@
         <v>9</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="n">
         <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV16" t="n">
         <v>18</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3525,10 +3592,10 @@
         <v>14</v>
       </c>
       <c r="AU17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW17" t="n">
         <v>7</v>
@@ -3549,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>22</v>
@@ -3704,7 +3771,7 @@
         <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
@@ -3719,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,7 +3944,7 @@
         <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
         <v>11</v>
@@ -3892,7 +3959,7 @@
         <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="n">
         <v>44</v>
       </c>
       <c r="G20" t="n">
-        <v>0.323</v>
+        <v>0.313</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,31 +4027,31 @@
         <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N20" t="n">
         <v>0.333</v>
       </c>
       <c r="O20" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P20" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S20" t="n">
         <v>30</v>
@@ -3999,7 +4066,7 @@
         <v>15.5</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
         <v>4.8</v>
@@ -4014,25 +4081,25 @@
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4044,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
@@ -4083,10 +4150,10 @@
         <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF21" t="n">
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.723</v>
+        <v>0.719</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4327,7 +4394,7 @@
         <v>79.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L22" t="n">
         <v>7.1</v>
@@ -4336,16 +4403,16 @@
         <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O22" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
         <v>11</v>
@@ -4357,10 +4424,10 @@
         <v>43.8</v>
       </c>
       <c r="U22" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
         <v>7.6</v>
@@ -4369,22 +4436,22 @@
         <v>8.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="AC22" t="n">
         <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4399,10 +4466,10 @@
         <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>11</v>
@@ -4611,7 +4678,7 @@
         <v>16</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>12</v>
@@ -4620,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
@@ -4790,7 +4857,7 @@
         <v>22</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J25" t="n">
         <v>82.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L25" t="n">
         <v>6.8</v>
@@ -4882,7 +4949,7 @@
         <v>19.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O25" t="n">
         <v>16.1</v>
@@ -4891,10 +4958,10 @@
         <v>21.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S25" t="n">
         <v>30.8</v>
@@ -4915,7 +4982,7 @@
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>18.7</v>
@@ -4924,13 +4991,13 @@
         <v>19.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4948,25 +5015,25 @@
         <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
@@ -4978,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
         <v>6</v>
@@ -4996,13 +5063,13 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA25" t="n">
         <v>15</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5191,7 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5169,7 +5236,7 @@
         <v>11</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -5216,100 +5283,100 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="n">
         <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" t="n">
-        <v>0.323</v>
+        <v>0.328</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J27" t="n">
         <v>86.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M27" t="n">
         <v>19.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O27" t="n">
         <v>17.1</v>
       </c>
       <c r="P27" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q27" t="n">
         <v>0.736</v>
       </c>
       <c r="R27" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T27" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U27" t="n">
         <v>19.2</v>
       </c>
       <c r="V27" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W27" t="n">
         <v>8.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
         <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5330,7 +5397,7 @@
         <v>12</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>25</v>
@@ -5339,22 +5406,22 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5737,7 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>29</v>
@@ -5682,7 +5749,7 @@
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
@@ -5703,10 +5770,10 @@
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.538</v>
+        <v>0.531</v>
       </c>
       <c r="H30" t="n">
         <v>49</v>
@@ -5807,10 +5874,10 @@
         <v>13</v>
       </c>
       <c r="S30" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T30" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U30" t="n">
         <v>21.9</v>
@@ -5825,7 +5892,7 @@
         <v>5.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
         <v>21.9</v>
@@ -5837,10 +5904,10 @@
         <v>99.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5861,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5885,10 +5952,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU30" t="n">
         <v>11</v>
@@ -5903,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5915,7 +5982,7 @@
         <v>4</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6088,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-24-2011-12</t>
+          <t>2012-04-24</t>
         </is>
       </c>
     </row>
